--- a/Assets/Resources/Master/Card.xlsx
+++ b/Assets/Resources/Master/Card.xlsx
@@ -5,76 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimami\Desktop\20190430jam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryohei\Documents\Unity\HeiseiToReiwaGamejam\Assets\Resources\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC56BF09-1DD0-4106-B948-15A336400A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7192E-889D-4F71-877D-50068A44670B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45EDB682-3C27-4B2F-A5F5-FDE0C49D8DB9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{45EDB682-3C27-4B2F-A5F5-FDE0C49D8DB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="カード一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="イベント一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カード名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果量</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果テキスト</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常設</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>食べない</t>
     <rPh sb="0" eb="1">
@@ -89,13 +41,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>価格</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,13 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>知らない先輩とご飯</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
@@ -313,13 +251,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,10 +506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントテキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,13 +558,31 @@
     <t>日本の心、おにぎり
 価格の割にはお腹にたまる</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,7 +631,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,83 +945,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F607F-56B8-40F2-8485-7862CBE8CBDE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -1085,15 +1030,15 @@
         <v>800</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1102,15 +1047,15 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1119,15 +1064,15 @@
         <v>1200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1136,15 +1081,15 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1153,15 +1098,15 @@
         <v>400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -1170,15 +1115,15 @@
         <v>800</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -1187,15 +1132,15 @@
         <v>400</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1204,15 +1149,15 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1221,15 +1166,15 @@
         <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1238,15 +1183,15 @@
         <v>700</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>70</v>
@@ -1255,15 +1200,15 @@
         <v>800</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1272,15 +1217,15 @@
         <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1289,7 +1234,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1304,45 +1249,43 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.796875" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1351,15 +1294,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1368,15 +1311,15 @@
         <v>-1000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1385,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>-30</v>
@@ -1402,15 +1345,15 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1419,15 +1362,15 @@
         <v>-10000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1436,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Master/Card.xlsx
+++ b/Assets/Resources/Master/Card.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimami\Desktop\20190430jam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimami\Documents\HeiseiToReiwaHackson\Assets\Resources\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC56BF09-1DD0-4106-B948-15A336400A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516A984-0594-4BF3-893C-7590DE203A77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45EDB682-3C27-4B2F-A5F5-FDE0C49D8DB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="カード一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="イベント一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
+    <sheet name="Event" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,49 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カード名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果量</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果テキスト</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常設</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>食べない</t>
     <rPh sb="0" eb="1">
@@ -89,13 +47,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>価格</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,13 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>知らない先輩とご飯</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
@@ -317,13 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>収支</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お隣さんからの差し入れ</t>
     <rPh sb="1" eb="2">
       <t>トナリ</t>
@@ -333,26 +270,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お隣さんから余ったカレーのおすそ分け
-一食浮いたぜラッキー</t>
-    <rPh sb="1" eb="2">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アマ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イッショク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,10 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントテキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -614,8 +527,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>日本の心、おにぎり
+価格の割にはお腹にたまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>片手に食べれるパン
-消化は</t>
+消化は早い</t>
     <rPh sb="0" eb="2">
       <t>カタテ</t>
     </rPh>
@@ -625,11 +543,160 @@
     <rPh sb="10" eb="12">
       <t>ショウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本の心、おにぎり
-価格の割にはお腹にたまる</t>
+    <rPh sb="13" eb="14">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お隣さんから余ったカレーのおすそ分け
+一食浮いてラッキー！</t>
+    <rPh sb="1" eb="2">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッショク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地元の友達</t>
+    <rPh sb="0" eb="2">
+      <t>ジモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝坊</t>
+    <rPh sb="0" eb="2">
+      <t>ネボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝坊で電車に乗り遅れた！
+タクシーで何とか遅刻を回避…</t>
+    <rPh sb="0" eb="2">
+      <t>ネボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チコク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>心霊現象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!?</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シンレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきなり金縛り発生！
+全然寝れなかった…</t>
+    <rPh sb="4" eb="6">
+      <t>カナシバ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンゼン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地元から友達が遊びに来た
+遊んではしゃいで、大満喫！</t>
+    <rPh sb="0" eb="2">
+      <t>ジモト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マンキツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recovery</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -637,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +717,12 @@
       <name val="HGｺﾞｼｯｸM"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1000,15 +1073,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F607F-56B8-40F2-8485-7862CBE8CBDE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.77734375" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -1016,22 +1087,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,16 +1110,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
@@ -1056,19 +1127,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1076,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -1085,7 +1156,7 @@
         <v>800</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1093,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1102,7 +1173,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1110,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1119,7 +1190,7 @@
         <v>1200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1127,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1136,7 +1207,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1144,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1153,7 +1224,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1161,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -1170,7 +1241,7 @@
         <v>800</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1178,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -1187,7 +1258,7 @@
         <v>400</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1195,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1204,7 +1275,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1212,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1221,7 +1292,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1229,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1238,7 +1309,7 @@
         <v>700</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1246,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>70</v>
@@ -1255,7 +1326,7 @@
         <v>800</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1263,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1272,7 +1343,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
@@ -1280,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1289,7 +1360,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1301,48 +1372,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C6EDD-C0DF-4EEE-8C86-35F957F8155B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1351,15 +1420,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1368,32 +1437,32 @@
         <v>-1000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>-30</v>
@@ -1402,15 +1471,15 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1419,24 +1488,75 @@
         <v>-10000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-5000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>-100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>-5000</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Master/Card.xlsx
+++ b/Assets/Resources/Master/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimami\Documents\HeiseiToReiwaHackson\Assets\Resources\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryohei\Documents\Unity\HeiseiToReiwaGamejam\Assets\Resources\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FB042-FA5B-458C-B33E-4510D8FDEC95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2593033A-C9D5-4788-8551-4C518E82255A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45EDB682-3C27-4B2F-A5F5-FDE0C49D8DB9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{45EDB682-3C27-4B2F-A5F5-FDE0C49D8DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -463,13 +460,16 @@
       <t>ハヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,7 +518,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -832,19 +832,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F607F-56B8-40F2-8485-7862CBE8CBDE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -852,19 +854,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -881,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="38.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -901,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -935,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -952,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -969,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -986,7 +988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1102,10 +1104,10 @@
         <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1133,20 +1135,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C6EDD-C0DF-4EEE-8C86-35F957F8155B}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.796875" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1154,23 +1156,23 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1179,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1196,15 +1198,15 @@
         <v>-1000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -1213,15 +1215,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>-30</v>
@@ -1230,15 +1232,15 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1247,15 +1249,15 @@
         <v>-10000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1264,15 +1266,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1281,15 +1283,15 @@
         <v>-5000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -1298,15 +1300,15 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1315,7 +1317,7 @@
         <v>-5000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
